--- a/yc-perf-info/bench.xlsx
+++ b/yc-perf-info/bench.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="413" windowWidth="32056" windowHeight="13962" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="826" windowWidth="32056" windowHeight="13962" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bench" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bench!$A$1:$C$55</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -121,8 +121,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -628,12 +629,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — акцент1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1923,16 +1926,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>489003</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>159024</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43730</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>437321</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15901</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111317</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2846,19 +2849,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="7.796875" customWidth="1"/>
     <col min="4" max="4" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2881,7 +2886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2889,25 +2894,37 @@
         <v>18321.919999999998</v>
       </c>
       <c r="C2" s="3">
-        <f>B2/MIN(B$2:B$19)</f>
+        <f t="shared" ref="C2:C19" si="0">B2/MIN(B$2:B$19)</f>
         <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>26883.71</v>
       </c>
       <c r="E2" s="3">
-        <f>D2/MIN(D$2:D$19)</f>
+        <f t="shared" ref="E2:E19" si="1">D2/MIN(D$2:D$19)</f>
         <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>27762.13</v>
       </c>
       <c r="G2" s="3">
-        <f>F2/MIN(F$2:F$19)</f>
+        <f t="shared" ref="G2:G19" si="2">F2/MIN(F$2:F$19)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="5">
+        <f>D2/B2</f>
+        <v>1.4672976412952354</v>
+      </c>
+      <c r="I2" s="5">
+        <f>F2/B2</f>
+        <v>1.515241306587956</v>
+      </c>
+      <c r="J2" s="5">
+        <f>F2/D2</f>
+        <v>1.0326748056722828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2915,25 +2932,37 @@
         <v>18713.919999999998</v>
       </c>
       <c r="C3" s="3">
-        <f>B3/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.0213951376274975</v>
       </c>
       <c r="D3" s="2">
         <v>27268.43</v>
       </c>
       <c r="E3" s="3">
-        <f>D3/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.0143105248494348</v>
       </c>
       <c r="F3" s="2">
         <v>28205.73</v>
       </c>
       <c r="G3" s="3">
-        <f>F3/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.0159786010655523</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="5">
+        <f>D3/B3</f>
+        <v>1.4571201544091246</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I19" si="3">F3/B3</f>
+        <v>1.5072058660077634</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J19" si="4">F3/D3</f>
+        <v>1.0343730827187336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2941,25 +2970,37 @@
         <v>19303.29</v>
       </c>
       <c r="C4" s="3">
-        <f>B4/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.0535626178915749</v>
       </c>
       <c r="D4" s="2">
         <v>27899.96</v>
       </c>
       <c r="E4" s="3">
-        <f>D4/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.0378017022204153</v>
       </c>
       <c r="F4" s="2">
         <v>28607.3</v>
       </c>
       <c r="G4" s="3">
-        <f>F4/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.0304432693024634</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="5">
+        <f>D4/B4</f>
+        <v>1.4453473993293371</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="3"/>
+        <v>1.481990893780283</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0253527245200351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2967,25 +3008,37 @@
         <v>19653.09</v>
       </c>
       <c r="C5" s="3">
-        <f>B5/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.0726545034581529</v>
       </c>
       <c r="D5" s="2">
         <v>28391.88</v>
       </c>
       <c r="E5" s="3">
-        <f>D5/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.0560997719436789</v>
       </c>
       <c r="F5" s="2">
         <v>29162.02</v>
       </c>
       <c r="G5" s="3">
-        <f>F5/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.0504244450984128</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="5">
+        <f>D5/B5</f>
+        <v>1.4446522149951992</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4838389281278415</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0271253611948206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2993,25 +3046,37 @@
         <v>19709.73</v>
       </c>
       <c r="C6" s="3">
-        <f>B6/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.0757458825275954</v>
       </c>
       <c r="D6" s="2">
         <v>29035.45</v>
       </c>
       <c r="E6" s="3">
-        <f>D6/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.080038804168026</v>
       </c>
       <c r="F6" s="2">
         <v>30044.92</v>
       </c>
       <c r="G6" s="3">
-        <f>F6/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.082226759978431</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="5">
+        <f>D6/B6</f>
+        <v>1.4731531076275526</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5243699431702007</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0347668109156221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3019,25 +3084,37 @@
         <v>19753.84</v>
       </c>
       <c r="C7" s="3">
-        <f>B7/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.0781533813050161</v>
       </c>
       <c r="D7" s="2">
         <v>28764.240000000002</v>
       </c>
       <c r="E7" s="3">
-        <f>D7/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.0699505388207209</v>
       </c>
       <c r="F7" s="2">
         <v>29714.720000000001</v>
       </c>
       <c r="G7" s="3">
-        <f>F7/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.0703328599066426</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="5">
+        <f>D7/B7</f>
+        <v>1.4561340984841429</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5042503128505649</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0330438071716825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3045,25 +3122,37 @@
         <v>20045.18</v>
       </c>
       <c r="C8" s="3">
-        <f>B8/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.0940545532345956</v>
       </c>
       <c r="D8" s="2">
         <v>29242.95</v>
       </c>
       <c r="E8" s="3">
-        <f>D8/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.0877572329116778</v>
       </c>
       <c r="F8" s="2">
         <v>30007.14</v>
       </c>
       <c r="G8" s="3">
-        <f>F8/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.0808659133863288</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="5">
+        <f>D8/B8</f>
+        <v>1.4588519534371853</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4969753327233779</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0261324524372542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3071,25 +3160,37 @@
         <v>20337.900000000001</v>
       </c>
       <c r="C9" s="3">
-        <f>B9/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1100310447813331</v>
       </c>
       <c r="D9" s="2">
         <v>28908.6</v>
       </c>
       <c r="E9" s="3">
-        <f>D9/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.0753203333914849</v>
       </c>
       <c r="F9" s="2">
         <v>29866.95</v>
       </c>
       <c r="G9" s="3">
-        <f>F9/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.0758162287980064</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="5">
+        <f t="shared" ref="H9:H19" si="5">D9/B9</f>
+        <v>1.4214151903588865</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
+        <v>1.468536574572596</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0331510346402109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3097,25 +3198,37 @@
         <v>20351.72</v>
       </c>
       <c r="C10" s="3">
-        <f>B10/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.110785332541568</v>
       </c>
       <c r="D10" s="2">
         <v>29490.28</v>
       </c>
       <c r="E10" s="3">
-        <f>D10/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.0969572280016411</v>
       </c>
       <c r="F10" s="2">
         <v>30095.58</v>
       </c>
       <c r="G10" s="3">
-        <f>F10/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.0840515479179731</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4490313349436803</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4787732928715607</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0205254070154641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3123,25 +3236,37 @@
         <v>20459.3</v>
       </c>
       <c r="C11" s="3">
-        <f>B11/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1166569879139305</v>
       </c>
       <c r="D11" s="2">
         <v>29305.51</v>
       </c>
       <c r="E11" s="3">
-        <f>D11/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.0900842926813301</v>
       </c>
       <c r="F11" s="2">
         <v>30299.62</v>
       </c>
       <c r="G11" s="3">
-        <f>F11/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.0914011280834719</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4323808732459078</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4809705121876116</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0339222896991045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3149,25 +3274,37 @@
         <v>20567.79</v>
       </c>
       <c r="C12" s="3">
-        <f>B12/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1225783105700715</v>
       </c>
       <c r="D12" s="2">
         <v>30641.03</v>
       </c>
       <c r="E12" s="3">
-        <f>D12/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.139761959937821</v>
       </c>
       <c r="F12" s="2">
         <v>31356.84</v>
       </c>
       <c r="G12" s="3">
-        <f>F12/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.1294825000819462</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4897580148377632</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5245604899699967</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0233611598565715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3175,25 +3312,37 @@
         <v>20606.89</v>
       </c>
       <c r="C13" s="3">
-        <f>B13/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1247123663895489</v>
       </c>
       <c r="D13" s="2">
         <v>29996.89</v>
       </c>
       <c r="E13" s="3">
-        <f>D13/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.1158017252827084</v>
       </c>
       <c r="F13" s="2">
         <v>30947.55</v>
       </c>
       <c r="G13" s="3">
-        <f>F13/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.1147397551988987</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4556728356389539</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5018059493693614</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0316919520656975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3201,25 +3350,37 @@
         <v>20646.86</v>
       </c>
       <c r="C14" s="3">
-        <f>B14/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1268939063154955</v>
       </c>
       <c r="D14" s="2">
         <v>29748.720000000001</v>
       </c>
       <c r="E14" s="3">
-        <f>D14/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.1065704845053008</v>
       </c>
       <c r="F14" s="2">
         <v>30678.62</v>
       </c>
       <c r="G14" s="3">
-        <f>F14/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.105052818353635</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4408350712892906</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4858733967295752</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0312584877601456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3227,25 +3388,37 @@
         <v>20685.5</v>
       </c>
       <c r="C15" s="3">
-        <f>B15/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1290028555959202</v>
       </c>
       <c r="D15" s="2">
         <v>30450.95</v>
       </c>
       <c r="E15" s="3">
-        <f>D15/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.1326915072361665</v>
       </c>
       <c r="F15" s="2">
         <v>32153.3</v>
       </c>
       <c r="G15" s="3">
-        <f>F15/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.1581712210122206</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4720915617219792</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5543883396582145</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0559046597889392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3253,25 +3426,37 @@
         <v>20697.580000000002</v>
       </c>
       <c r="C16" s="3">
-        <f>B16/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1296621751432165</v>
       </c>
       <c r="D16" s="2">
         <v>30061.27</v>
       </c>
       <c r="E16" s="3">
-        <f>D16/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.1181964840418233</v>
       </c>
       <c r="F16" s="2">
         <v>30966.32</v>
       </c>
       <c r="G16" s="3">
-        <f>F16/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.1154158560600358</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4524050637804031</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4961323980871193</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0301068451199833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3279,25 +3464,37 @@
         <v>20774.09</v>
       </c>
       <c r="C17" s="3">
-        <f>B17/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1338380475408691</v>
       </c>
       <c r="D17" s="2">
         <v>29699.82</v>
       </c>
       <c r="E17" s="3">
-        <f>D17/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.1047515391290861</v>
       </c>
       <c r="F17" s="2">
         <v>30388.7</v>
       </c>
       <c r="G17" s="3">
-        <f>F17/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.0946098156013244</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4296568465814867</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4628173845400689</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0231947533688757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3305,25 +3502,37 @@
         <v>21012.26</v>
       </c>
       <c r="C18" s="3">
-        <f>B18/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1468372310325556</v>
       </c>
       <c r="D18" s="2">
         <v>30651.74</v>
       </c>
       <c r="E18" s="3">
-        <f>D18/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.1401603424527345</v>
       </c>
       <c r="F18" s="2">
         <v>30670</v>
       </c>
       <c r="G18" s="3">
-        <f>F18/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.1047423234456433</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4587550315863218</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4596240480557543</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0005957247451531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3331,22 +3540,74 @@
         <v>21395.78</v>
       </c>
       <c r="C19" s="3">
-        <f>B19/MIN(B$2:B$19)</f>
+        <f t="shared" si="0"/>
         <v>1.1677695350705604</v>
       </c>
       <c r="D19" s="2">
         <v>31712.57</v>
       </c>
       <c r="E19" s="3">
-        <f>D19/MIN(D$2:D$19)</f>
+        <f t="shared" si="1"/>
         <v>1.1796202979425088</v>
       </c>
       <c r="F19" s="2">
         <v>32476.39</v>
       </c>
       <c r="G19" s="3">
-        <f>F19/MIN(F$2:F$19)</f>
+        <f t="shared" si="2"/>
         <v>1.1698090168153523</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4821880763402877</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5178876395251775</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0240857174300286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="H20" s="6">
+        <f>AVERAGE(H2:H19)</f>
+        <v>1.4548192483279299</v>
+      </c>
+      <c r="I20" s="6">
+        <f>AVERAGE(I2:I19)</f>
+        <v>1.4969579227119458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="H21" s="5">
+        <f>MIN(H2:H19)</f>
+        <v>1.4214151903588865</v>
+      </c>
+      <c r="I21" s="5">
+        <f>MIN(I2:I19)</f>
+        <v>1.4596240480557543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="H22" s="5">
+        <f>MAX(H2:H19)</f>
+        <v>1.4897580148377632</v>
+      </c>
+      <c r="I22" s="5">
+        <f>MAX(I2:I19)</f>
+        <v>1.5543883396582145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="H23" s="4">
+        <f>(H22-H21)/H21</f>
+        <v>4.8080831654557642E-2</v>
+      </c>
+      <c r="I23" s="4">
+        <f>(I22-I21)/I21</f>
+        <v>6.492376699924067E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3354,7 +3615,8 @@
     <sortCondition ref="C2:C19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/yc-perf-info/bench.xlsx
+++ b/yc-perf-info/bench.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ydb-snippets\yc-perf-info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzinal/Projects/ydb-snippets/yc-perf-info/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2645200-F9A6-9440-B249-D3160A40FF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="826" windowWidth="32056" windowHeight="13962" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27120" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bench" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bench!$A$1:$C$55</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -120,12 +134,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,59 +644,60 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% — акцент1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="9" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
-    <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,7 +715,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1236,7 +1252,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="353666352"/>
@@ -1295,7 +1311,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="367408224"/>
@@ -1312,7 +1328,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1338,7 +1353,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1368,7 +1383,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1939,7 +1954,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2219,7 +2240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C55"/>
   <sheetViews>
@@ -2227,9 +2248,9 @@
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2240,7 +2261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2272,7 @@
         <v>26883.71</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +2283,7 @@
         <v>27762.13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2294,7 @@
         <v>18321.919999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2305,7 @@
         <v>31712.57</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2295,7 +2316,7 @@
         <v>32476.39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2306,7 +2327,7 @@
         <v>21395.78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>27268.43</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2328,7 +2349,7 @@
         <v>28205.73</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2360,7 @@
         <v>18713.919999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2350,7 +2371,7 @@
         <v>28908.6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2361,7 +2382,7 @@
         <v>29866.95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +2393,7 @@
         <v>20337.900000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2383,7 +2404,7 @@
         <v>30061.27</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +2415,7 @@
         <v>30966.32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +2426,7 @@
         <v>20697.580000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2416,7 +2437,7 @@
         <v>30641.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2427,7 +2448,7 @@
         <v>31356.84</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2459,7 @@
         <v>20567.79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2449,7 +2470,7 @@
         <v>29242.95</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2460,7 +2481,7 @@
         <v>30007.14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2492,7 @@
         <v>20045.18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2482,7 +2503,7 @@
         <v>27899.96</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2493,7 +2514,7 @@
         <v>28607.3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2504,7 +2525,7 @@
         <v>19303.29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2515,7 +2536,7 @@
         <v>29748.720000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2526,7 +2547,7 @@
         <v>30678.62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2537,7 +2558,7 @@
         <v>20646.86</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2548,7 +2569,7 @@
         <v>29490.28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2559,7 +2580,7 @@
         <v>30095.58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2570,7 +2591,7 @@
         <v>20351.72</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2581,7 +2602,7 @@
         <v>29996.89</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2613,7 @@
         <v>30947.55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2624,7 @@
         <v>20606.89</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2614,7 +2635,7 @@
         <v>29035.45</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2625,7 +2646,7 @@
         <v>30044.92</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2636,7 +2657,7 @@
         <v>19709.73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2647,7 +2668,7 @@
         <v>28764.240000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2658,7 +2679,7 @@
         <v>29714.720000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2669,7 +2690,7 @@
         <v>19753.84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -2680,7 +2701,7 @@
         <v>30450.95</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2691,7 +2712,7 @@
         <v>32153.3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2702,7 +2723,7 @@
         <v>20685.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2713,7 +2734,7 @@
         <v>28391.88</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2724,7 +2745,7 @@
         <v>29162.02</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -2735,7 +2756,7 @@
         <v>19653.09</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -2746,7 +2767,7 @@
         <v>30651.74</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -2757,7 +2778,7 @@
         <v>30670</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -2768,7 +2789,7 @@
         <v>21012.26</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2779,7 +2800,7 @@
         <v>29305.51</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2790,7 +2811,7 @@
         <v>30299.62</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2801,7 +2822,7 @@
         <v>20459.3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2812,7 +2833,7 @@
         <v>29699.82</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2823,7 +2844,7 @@
         <v>30388.7</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2835,7 +2856,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C55">
+  <autoFilter ref="A1:C55" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="24c"/>
@@ -2848,22 +2869,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.796875" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2886,7 +2907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="5">
-        <f>D2/B2</f>
+        <f t="shared" ref="H2:H8" si="3">D2/B2</f>
         <v>1.4672976412952354</v>
       </c>
       <c r="I2" s="5">
@@ -2924,7 +2945,7 @@
         <v>1.0326748056722828</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2950,19 +2971,23 @@
         <v>1.0159786010655523</v>
       </c>
       <c r="H3" s="5">
-        <f>D3/B3</f>
+        <f t="shared" si="3"/>
         <v>1.4571201544091246</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I19" si="3">F3/B3</f>
+        <f t="shared" ref="I3:I19" si="4">F3/B3</f>
         <v>1.5072058660077634</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J19" si="4">F3/D3</f>
+        <f t="shared" ref="J3:J19" si="5">F3/D3</f>
         <v>1.0343730827187336</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3">
+        <f>1.2*12/8</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2988,19 +3013,19 @@
         <v>1.0304432693024634</v>
       </c>
       <c r="H4" s="5">
-        <f>D4/B4</f>
+        <f t="shared" si="3"/>
         <v>1.4453473993293371</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.481990893780283</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0253527245200351</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3026,19 +3051,19 @@
         <v>1.0504244450984128</v>
       </c>
       <c r="H5" s="5">
-        <f>D5/B5</f>
+        <f t="shared" si="3"/>
         <v>1.4446522149951992</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4838389281278415</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0271253611948206</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3064,19 +3089,19 @@
         <v>1.082226759978431</v>
       </c>
       <c r="H6" s="5">
-        <f>D6/B6</f>
+        <f t="shared" si="3"/>
         <v>1.4731531076275526</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5243699431702007</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0347668109156221</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3102,19 +3127,19 @@
         <v>1.0703328599066426</v>
       </c>
       <c r="H7" s="5">
-        <f>D7/B7</f>
+        <f t="shared" si="3"/>
         <v>1.4561340984841429</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5042503128505649</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0330438071716825</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3140,19 +3165,19 @@
         <v>1.0808659133863288</v>
       </c>
       <c r="H8" s="5">
-        <f>D8/B8</f>
+        <f t="shared" si="3"/>
         <v>1.4588519534371853</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4969753327233779</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0261324524372542</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3178,19 +3203,19 @@
         <v>1.0758162287980064</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" ref="H9:H19" si="5">D9/B9</f>
+        <f t="shared" ref="H9:H19" si="6">D9/B9</f>
         <v>1.4214151903588865</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.468536574572596</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0331510346402109</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3216,19 +3241,19 @@
         <v>1.0840515479179731</v>
       </c>
       <c r="H10" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4490313349436803</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4787732928715607</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="5"/>
-        <v>1.4490313349436803</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4787732928715607</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="4"/>
         <v>1.0205254070154641</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3254,19 +3279,19 @@
         <v>1.0914011280834719</v>
       </c>
       <c r="H11" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4323808732459078</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4809705121876116</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="5"/>
-        <v>1.4323808732459078</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4809705121876116</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="4"/>
         <v>1.0339222896991045</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3292,19 +3317,19 @@
         <v>1.1294825000819462</v>
       </c>
       <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4897580148377632</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5245604899699967</v>
+      </c>
+      <c r="J12" s="5">
         <f t="shared" si="5"/>
-        <v>1.4897580148377632</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5245604899699967</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="4"/>
         <v>1.0233611598565715</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3330,19 +3355,19 @@
         <v>1.1147397551988987</v>
       </c>
       <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4556728356389539</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5018059493693614</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="5"/>
-        <v>1.4556728356389539</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5018059493693614</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="4"/>
         <v>1.0316919520656975</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3368,19 +3393,19 @@
         <v>1.105052818353635</v>
       </c>
       <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4408350712892906</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4858733967295752</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="5"/>
-        <v>1.4408350712892906</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4858733967295752</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="4"/>
         <v>1.0312584877601456</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3406,19 +3431,19 @@
         <v>1.1581712210122206</v>
       </c>
       <c r="H15" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4720915617219792</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5543883396582145</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="5"/>
-        <v>1.4720915617219792</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5543883396582145</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="4"/>
         <v>1.0559046597889392</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3444,19 +3469,19 @@
         <v>1.1154158560600358</v>
       </c>
       <c r="H16" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4524050637804031</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4961323980871193</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="5"/>
-        <v>1.4524050637804031</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4961323980871193</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="4"/>
         <v>1.0301068451199833</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3482,19 +3507,19 @@
         <v>1.0946098156013244</v>
       </c>
       <c r="H17" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4296568465814867</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4628173845400689</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="5"/>
-        <v>1.4296568465814867</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4628173845400689</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="4"/>
         <v>1.0231947533688757</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3520,19 +3545,19 @@
         <v>1.1047423234456433</v>
       </c>
       <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4587550315863218</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4596240480557543</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="5"/>
-        <v>1.4587550315863218</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="3"/>
-        <v>1.4596240480557543</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="4"/>
         <v>1.0005957247451531</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3558,19 +3583,19 @@
         <v>1.1698090168153523</v>
       </c>
       <c r="H19" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4821880763402877</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5178876395251775</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="5"/>
-        <v>1.4821880763402877</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5178876395251775</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="4"/>
         <v>1.0240857174300286</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H20" s="6">
         <f>AVERAGE(H2:H19)</f>
         <v>1.4548192483279299</v>
@@ -3580,7 +3605,19 @@
         <v>1.4969579227119458</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>(MAX(B2:B19)-MIN(B2:B19))/AVERAGE(B2:B19)</f>
+        <v>0.15240742642395547</v>
+      </c>
+      <c r="D21" s="7">
+        <f>(MAX(D2:D19)-MIN(D2:D19))/AVERAGE(D2:D19)</f>
+        <v>0.16457222703984067</v>
+      </c>
+      <c r="F21" s="7">
+        <f>(MAX(F2:F19)-MIN(F2:F19))/AVERAGE(F2:F19)</f>
+        <v>0.15615767743116563</v>
+      </c>
       <c r="H21" s="5">
         <f>MIN(H2:H19)</f>
         <v>1.4214151903588865</v>
@@ -3590,7 +3627,7 @@
         <v>1.4596240480557543</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H22" s="5">
         <f>MAX(H2:H19)</f>
         <v>1.4897580148377632</v>
@@ -3600,7 +3637,7 @@
         <v>1.5543883396582145</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H23" s="4">
         <f>(H22-H21)/H21</f>
         <v>4.8080831654557642E-2</v>
@@ -3611,30 +3648,33 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
     <sortCondition ref="C2:C19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I2" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="7.8984375" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3645,7 +3685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3661,7 +3701,7 @@
         <v>0.17962029794250869</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3673,7 +3713,7 @@
         <v>1.1796202979425088</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3685,7 +3725,7 @@
         <v>1.0143105248494348</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3697,7 +3737,7 @@
         <v>1.0753203333914849</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3709,7 +3749,7 @@
         <v>1.1181964840418233</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3721,7 +3761,7 @@
         <v>1.139761959937821</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3733,7 +3773,7 @@
         <v>1.0877572329116778</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3745,7 +3785,7 @@
         <v>1.0378017022204153</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3757,7 +3797,7 @@
         <v>1.1065704845053008</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3769,7 +3809,7 @@
         <v>1.0969572280016411</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3781,7 +3821,7 @@
         <v>1.1158017252827084</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3793,7 +3833,7 @@
         <v>1.080038804168026</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3805,7 +3845,7 @@
         <v>1.0699505388207209</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3817,7 +3857,7 @@
         <v>1.1326915072361665</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3829,7 +3869,7 @@
         <v>1.0560997719436789</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3841,7 +3881,7 @@
         <v>1.1401603424527345</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3853,7 +3893,7 @@
         <v>1.0900842926813301</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3871,20 +3911,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3895,7 +3935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3911,7 +3951,7 @@
         <v>0.16980901681535235</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3923,7 +3963,7 @@
         <v>1.1698090168153523</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +3975,7 @@
         <v>1.0159786010655523</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3947,7 +3987,7 @@
         <v>1.0758162287980064</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3959,7 +3999,7 @@
         <v>1.1154158560600358</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3971,7 +4011,7 @@
         <v>1.1294825000819462</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3983,7 +4023,7 @@
         <v>1.0808659133863288</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3995,7 +4035,7 @@
         <v>1.0304432693024634</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4007,7 +4047,7 @@
         <v>1.105052818353635</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4019,7 +4059,7 @@
         <v>1.0840515479179731</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4031,7 +4071,7 @@
         <v>1.1147397551988987</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4043,7 +4083,7 @@
         <v>1.082226759978431</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4055,7 +4095,7 @@
         <v>1.0703328599066426</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4067,7 +4107,7 @@
         <v>1.1581712210122206</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4079,7 +4119,7 @@
         <v>1.0504244450984128</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -4091,7 +4131,7 @@
         <v>1.1047423234456433</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -4103,7 +4143,7 @@
         <v>1.0914011280834719</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
